--- a/results/mp/logistic/corona/confidence/84/stop-words-desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,52 +40,55 @@
     <t>name</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>war</t>
   </si>
   <si>
     <t>death</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>infected</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>problem</t>
   </si>
   <si>
     <t>drop</t>
@@ -94,208 +97,217 @@
     <t>avoid</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>create</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>like</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>team</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>increased</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -653,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,10 +737,10 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -740,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -793,16 +805,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -814,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -822,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -840,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -872,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8493150684931506</v>
+        <v>0.8253424657534246</v>
       </c>
       <c r="C6">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D6">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -914,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8421052631578947</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,16 +955,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.925</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -964,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1014,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8108108108108109</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.9069767441860465</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1064,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1093,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.9060052219321149</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L10">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1143,16 +1155,16 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8936170212765957</v>
+        <v>0.8929503916449086</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1164,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1193,16 +1205,16 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1214,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,13 +1234,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6538461538461539</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1240,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1264,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1272,7 +1284,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1290,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.8793103448275862</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1314,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1322,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.64</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1340,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>0.875</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1364,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1372,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5608465608465608</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C16">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1390,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.875</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1414,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1422,13 +1434,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5135658914728682</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C17">
-        <v>265</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>265</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1440,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.875</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1464,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1472,13 +1484,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4509803921568628</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1490,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.8666666666666667</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1514,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1522,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3559322033898305</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1540,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.8661971830985915</v>
+        <v>0.85625</v>
       </c>
       <c r="L19">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M19">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1564,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1572,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3454545454545455</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1590,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.8658536585365854</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L20">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1614,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1622,13 +1634,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3333333333333333</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1640,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.8636363636363636</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1664,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1672,13 +1684,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3214285714285715</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1690,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.8625</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L22">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1714,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1722,13 +1734,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3087248322147651</v>
+        <v>0.2818791946308725</v>
       </c>
       <c r="C23">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1740,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.8584905660377359</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L23">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1764,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1772,13 +1784,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.05952380952380952</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1790,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.8421052631578947</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1814,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1822,37 +1834,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.004190844616376531</v>
+        <v>0.2</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3089</v>
+        <v>60</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1864,64 +1876,136 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.0873015873015873</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>230</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.8214285714285714</v>
+        <v>0.82</v>
       </c>
       <c r="L26">
+        <v>41</v>
+      </c>
+      <c r="M26">
+        <v>41</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.004830917874396135</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>0.12</v>
+      </c>
+      <c r="F27">
+        <v>0.88</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3090</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L27">
+        <v>22</v>
+      </c>
+      <c r="M27">
+        <v>22</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.004385964912280702</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
         <v>23</v>
       </c>
-      <c r="M26">
-        <v>23</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27">
-        <v>0.8</v>
-      </c>
-      <c r="L27">
-        <v>40</v>
-      </c>
-      <c r="M27">
-        <v>40</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="E28">
+        <v>0.39</v>
+      </c>
+      <c r="F28">
+        <v>0.61</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3178</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K28">
         <v>0.7916666666666666</v>
@@ -1947,16 +2031,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.7619047619047619</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1968,21 +2052,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.75</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1994,21 +2078,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2020,21 +2104,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.7407407407407407</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2046,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.7280334728033473</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L33">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2072,21 +2156,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2098,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.711764705882353</v>
+        <v>0.75</v>
       </c>
       <c r="L35">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2124,21 +2208,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.7058823529411765</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2150,21 +2234,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.7037037037037037</v>
+        <v>0.7405857740585774</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2176,21 +2260,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.7</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L38">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2202,21 +2286,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.6983050847457627</v>
+        <v>0.6802721088435374</v>
       </c>
       <c r="L39">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M39">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2225,24 +2309,24 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.696969696969697</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2254,21 +2338,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.6956521739130435</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2280,21 +2364,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2306,21 +2390,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.6818181818181818</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2332,21 +2416,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.648936170212766</v>
+        <v>0.65</v>
       </c>
       <c r="L44">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2358,21 +2442,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.6404494382022472</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L45">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M45">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2384,21 +2468,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.6296296296296297</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2410,21 +2494,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.6153846153846154</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L47">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2436,21 +2520,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K48">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2462,21 +2546,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.5777777777777777</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L49">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2488,21 +2572,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K50">
-        <v>0.575</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2514,21 +2598,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K51">
-        <v>0.5714285714285714</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2540,21 +2624,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K52">
-        <v>0.5652173913043478</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2571,16 +2655,16 @@
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K53">
-        <v>0.5512820512820513</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L53">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2592,21 +2676,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K54">
-        <v>0.5476190476190477</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2618,21 +2702,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K55">
-        <v>0.5416666666666666</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2644,21 +2728,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K56">
-        <v>0.5384615384615384</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2670,21 +2754,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>0.5205479452054794</v>
+        <v>0.5</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2696,21 +2780,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>0.4516129032258064</v>
+        <v>0.5</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2722,21 +2806,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K59">
-        <v>0.4411764705882353</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2748,21 +2832,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K60">
-        <v>0.4375</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2774,21 +2858,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K61">
-        <v>0.3728813559322034</v>
+        <v>0.4</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2800,15 +2884,15 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K62">
-        <v>0.3157894736842105</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L62">
         <v>18</v>
@@ -2826,21 +2910,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K63">
-        <v>0.2361111111111111</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2852,33 +2936,59 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K64">
-        <v>0.004385964912280702</v>
+        <v>0.265625</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N64">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>3178</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K65">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="L65">
+        <v>13</v>
+      </c>
+      <c r="M65">
+        <v>13</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
